--- a/data/trans_camb/P16B12-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B12-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B12-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B12-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,02</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,69; 6,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,91; 4,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,07; 6,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,63; 6,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,77; 4,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,31; 4,16</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,07%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,69; 6,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,92; 4,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,06; 6,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,64; 6,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,78; 4,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,31; 4,35</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,1</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,58; 7,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,39; 9,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,25; 12,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 5,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,64; 5,77</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,12%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,59; 7,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,4; 10,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,26; 14,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,28; 6,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,67; 6,18</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,63</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 4,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 3,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,09; 4,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,07; 5,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 3,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 3,49</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,67%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 4,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 4,01</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 5,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,08; 5,79</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,56; 3,98</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 3,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B12-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B12-Estudios-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 6,27</t>
+          <t>0,69; 6,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 4,7</t>
+          <t>-1,54; 4,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,07; 6,11</t>
+          <t>0,16; 5,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,63; 6,12</t>
+          <t>0,64; 6,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 4,54</t>
+          <t>0,65; 4,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 4,16</t>
+          <t>0,36; 4,21</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,69; 6,69</t>
+          <t>0,69; 6,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 4,98</t>
+          <t>-1,55; 4,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,06; 6,51</t>
+          <t>0,16; 6,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 6,52</t>
+          <t>0,65; 6,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 4,76</t>
+          <t>0,66; 4,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,31; 4,35</t>
+          <t>0,36; 4,41</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,6</t>
+          <t>0,0; 9,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 7,36</t>
+          <t>-1,59; 7,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 9,37</t>
+          <t>-4,36; 10,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 12,57</t>
+          <t>-3,31; 10,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 5,95</t>
+          <t>-1,59; 5,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 5,77</t>
+          <t>-1,63; 5,63</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,22</t>
+          <t>0,0; 9,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 7,95</t>
+          <t>-1,59; 7,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 10,3</t>
+          <t>-4,37; 11,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 14,34</t>
+          <t>-3,31; 11,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 6,38</t>
+          <t>-1,61; 6,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 6,18</t>
+          <t>-1,63; 5,98</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,56</t>
+          <t>0,47; 5,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 3,81</t>
+          <t>-0,82; 3,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 4,91</t>
+          <t>-0,14; 5,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,07; 5,47</t>
+          <t>0,04; 4,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,54; 3,81</t>
+          <t>0,6; 3,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,19; 3,49</t>
+          <t>0,15; 3,73</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,78</t>
+          <t>0,47; 5,29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 4,01</t>
+          <t>-0,82; 3,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 5,2</t>
+          <t>-0,14; 5,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,08; 5,79</t>
+          <t>0,05; 5,21</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,98</t>
+          <t>0,61; 3,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,2; 3,62</t>
+          <t>0,15; 3,86</t>
         </is>
       </c>
     </row>
